--- a/doc/data-specification/_data/_orig/pmhc-upload.xlsx
+++ b/doc/data-specification/_data/_orig/pmhc-upload.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32120" windowHeight="16060" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,17 @@
     <sheet name="SDQ" sheetId="6" r:id="rId6"/>
     <sheet name="Practitioners" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="167">
   <si>
     <t>Version</t>
   </si>
@@ -526,11 +531,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,13 +581,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -851,12 +888,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1002,16 +1039,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
@@ -1432,16 +1474,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -1609,16 +1658,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
@@ -1831,10 +1898,10 @@
         <v>46</v>
       </c>
       <c r="D5">
-        <v>18062016</v>
+        <v>20052016</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -1867,13 +1934,13 @@
         <v>9</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -1885,18 +1952,89 @@
         <v>69</v>
       </c>
     </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>18062016</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>99</v>
+      </c>
+      <c r="U6" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -2022,16 +2160,41 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="48" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:56">
       <c r="A1" t="s">
@@ -2330,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="AN3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2345,16 +2508,16 @@
         <v>2</v>
       </c>
       <c r="AS3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW3">
         <v>99</v>
@@ -2547,16 +2710,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="6" max="7" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -2606,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1975</v>
@@ -2634,6 +2809,9 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
         <v>1977</v>
       </c>
@@ -2672,8 +2850,16 @@
       <c r="G5">
         <v>4</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/data-specification/_data/_orig/pmhc-upload.xlsx
+++ b/doc/data-specification/_data/_orig/pmhc-upload.xlsx
@@ -2723,7 +2723,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2781,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1975</v>

--- a/doc/data-specification/_data/_orig/pmhc-upload.xlsx
+++ b/doc/data-specification/_data/_orig/pmhc-upload.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32120" windowHeight="16060" activeTab="6"/>
+    <workbookView xWindow="540" yWindow="2160" windowWidth="32120" windowHeight="16060" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="K5" sheetId="5" r:id="rId5"/>
     <sheet name="SDQ" sheetId="6" r:id="rId6"/>
     <sheet name="Practitioners" sheetId="7" r:id="rId7"/>
+    <sheet name="Organisations" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="177">
   <si>
     <t>Version</t>
   </si>
@@ -526,6 +527,36 @@
   </si>
   <si>
     <t>P03</t>
+  </si>
+  <si>
+    <t>organisation_key</t>
+  </si>
+  <si>
+    <t>organisation_name</t>
+  </si>
+  <si>
+    <t>organisation_legal_name</t>
+  </si>
+  <si>
+    <t>organisation_abn</t>
+  </si>
+  <si>
+    <t>organisation_type</t>
+  </si>
+  <si>
+    <t>organisation_state</t>
+  </si>
+  <si>
+    <t>organisation_status</t>
+  </si>
+  <si>
+    <t>organisation_tags</t>
+  </si>
+  <si>
+    <t>NFP01</t>
+  </si>
+  <si>
+    <t>Test Provider Organisation NFP1</t>
   </si>
 </sst>
 </file>
@@ -894,6 +925,9 @@
     <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2722,7 +2756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2862,4 +2896,91 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3">
+        <v>42072953425</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>